--- a/biology/Mycologie/Suillus_tridentinus/Suillus_tridentinus.xlsx
+++ b/biology/Mycologie/Suillus_tridentinus/Suillus_tridentinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet du Trentin
 Suillus tridentinus, le Bolet du Trentin, est une espèce de champignon (Fungi) basidiomycète du genre Suillus. Il est caractérisé par ses pores orangés et son habitat sous mélèzes.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus tridentinus (Bres.) Singer, 1945[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus tridentinus Bres., 1881[1].
-Synonymes
-Suillus tridentinus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus tridentinus (Bres.) Singer, 1945. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus tridentinus Bres., 1881.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus tridentinus a pour synonymes :
 Boletinus tridentinus (Bres.) Bigeard &amp; H. Guill., 1913
 Boletopsis tridentina (Bres.) Henn., 1900
 Boletus extractus Britzelm., 1893
@@ -527,49 +576,7 @@
 Ixocomus tridentinus (Bres.) Singer, 1938
 Viscipellis tridentina (Bres.) Quél., 1886
 Viscipellis tridentina (Bres.) Quél., 1886
-Viscipellis tridentina (Bresadola) Quélet, 1886
-Étymologie
-L'épithète spécifique tridentinus fait référence à la région du Trentin, patrie de Giacomo Bresadola, qui lui donna son nom en 1881.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet du trentin[2],[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suillus_tridentinus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suillus_tridentinus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus tridentinus, le Bolet du Trentin, sont les suivantes :
-Son chapeau mesure 4 à 12 cm, il est un peu visqueux, tout couvert de squames orange à brun rougeâtre sur un fond un peu plus pâle[4].
-L'hyménophore présente des tubes un peu décurrents, jaune orangé à orangé vif. Ses pores sont amples, orange cuivré à orange ochracé[4].
-Son stipe mesure 4 à 10 cm x 1 à 3 cm, il est jaune citron ou jaune orangé au-dessus de l'anneau blanchâtre, plus pâle, crème, à la base[4].
-La chair est molle, jaune virant au rougeâtre puis brunissant. Sa saveur est douce et son odeur est faible[4].
-Caractéristiques microscopiques
-Ses spores mesurent 8,5 à 11 μm x 4 à 5,5 μm, elles sont elliptiques-fusoïdes[4].
-</t>
+Viscipellis tridentina (Bresadola) Quélet, 1886</t>
         </is>
       </c>
     </row>
@@ -594,12 +601,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, montagnard[5], poussant uniquement sous les mélèzes, surtout sur sol calcaire[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique tridentinus fait référence à la région du Trentin, patrie de Giacomo Bresadola, qui lui donna son nom en 1881.
 </t>
         </is>
       </c>
@@ -625,12 +638,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme tous les bolets du genre Suillus, le Bolet du Trentin est un comestible médiocre, plus au moins laxatif selon la tolérance individuelle, la quantité consommée et le degré de maturité des spécimens consommés. Pour cela il est préconisé de ne cueillir que des jeunes spécimens, de retirer le pied fibreux, de peler la cuticule et de consommer une quantité modeste la première fois pour évaluer sa propre tolérance aux effets laxatifs[6]. Sa rareté devrait cependant inciter à ne pas le consommer.
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet du trentin,.
 </t>
         </is>
       </c>
@@ -656,10 +675,152 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus tridentinus, le Bolet du Trentin, sont les suivantes :
+Son chapeau mesure 4 à 12 cm, il est un peu visqueux, tout couvert de squames orange à brun rougeâtre sur un fond un peu plus pâle.
+L'hyménophore présente des tubes un peu décurrents, jaune orangé à orangé vif. Ses pores sont amples, orange cuivré à orange ochracé.
+Son stipe mesure 4 à 10 cm x 1 à 3 cm, il est jaune citron ou jaune orangé au-dessus de l'anneau blanchâtre, plus pâle, crème, à la base.
+La chair est molle, jaune virant au rougeâtre puis brunissant. Sa saveur est douce et son odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 8,5 à 11 μm x 4 à 5,5 μm, elles sont elliptiques-fusoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, montagnard, poussant uniquement sous les mélèzes, surtout sur sol calcaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les bolets du genre Suillus, le Bolet du Trentin est un comestible médiocre, plus au moins laxatif selon la tolérance individuelle, la quantité consommée et le degré de maturité des spécimens consommés. Pour cela il est préconisé de ne cueillir que des jeunes spécimens, de retirer le pied fibreux, de peler la cuticule et de consommer une quantité modeste la première fois pour évaluer sa propre tolérance aux effets laxatifs. Sa rareté devrait cependant inciter à ne pas le consommer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_tridentinus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les Suillus liés aux mélèzes, le Bolet du Trentin est le seul de teinte rouge orangé à avoir des squames sur le chapeau.
 Le Bolet de Sibérie (Suillus sibiricus) pousse sous les pins à cinq aiguilles (Pin cembro, Pin weymouth et Pin de Sibérie), sa couleur est plus jaunâtre et les squames du chapeau sont moins marquées.
